--- a/Process Automation/ClaimStatusCheckData.xlsx
+++ b/Process Automation/ClaimStatusCheckData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovativedell\eclipse-workspace\Process Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovativedell\git\repository\Process Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01C6439-424D-44F6-8B24-7642901FC3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD4F54-ADA8-48C6-A8E8-95E664EABFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62FB85B0-E758-447E-ACC8-9D2B295183FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Member ID</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>08/22/2022</t>
+  </si>
+  <si>
+    <t>ZC15000U</t>
+  </si>
+  <si>
+    <t>07/01/2022</t>
+  </si>
+  <si>
+    <t>07/06/1971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	133338107</t>
+  </si>
+  <si>
+    <t>08/08/1941</t>
   </si>
 </sst>
 </file>
@@ -415,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230A8A88-FE9C-48C6-8586-20368AE7B2E4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +466,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Process Automation/ClaimStatusCheckData.xlsx
+++ b/Process Automation/ClaimStatusCheckData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovativedell\git\repository\Process Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD4F54-ADA8-48C6-A8E8-95E664EABFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4B0B7-79F1-40C9-9BBE-9731157A96D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62FB85B0-E758-447E-ACC8-9D2B295183FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Member ID</t>
   </si>
@@ -47,6 +47,15 @@
     <t>Service Start Date</t>
   </si>
   <si>
+    <t>07/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	133338107</t>
+  </si>
+  <si>
+    <t>08/08/1941</t>
+  </si>
+  <si>
     <t>TM75900K</t>
   </si>
   <si>
@@ -56,19 +65,7 @@
     <t>08/22/2022</t>
   </si>
   <si>
-    <t>ZC15000U</t>
-  </si>
-  <si>
-    <t>07/01/2022</t>
-  </si>
-  <si>
-    <t>07/06/1971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	133338107</t>
-  </si>
-  <si>
-    <t>08/08/1941</t>
+    <t>TM75900L</t>
   </si>
 </sst>
 </file>
@@ -433,7 +430,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,35 +454,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Process Automation/ClaimStatusCheckData.xlsx
+++ b/Process Automation/ClaimStatusCheckData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Innovativedell\git\repository\Process Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E4B0B7-79F1-40C9-9BBE-9731157A96D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF414485-C850-4699-B878-A866F3317215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62FB85B0-E758-447E-ACC8-9D2B295183FF}"/>
   </bookViews>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Member ID</t>
   </si>
@@ -46,33 +45,12 @@
   <si>
     <t>Service Start Date</t>
   </si>
-  <si>
-    <t>07/01/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	133338107</t>
-  </si>
-  <si>
-    <t>08/08/1941</t>
-  </si>
-  <si>
-    <t>TM75900K</t>
-  </si>
-  <si>
-    <t>03/06/2000</t>
-  </si>
-  <si>
-    <t>08/22/2022</t>
-  </si>
-  <si>
-    <t>TM75900L</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +62,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,10 +94,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230A8A88-FE9C-48C6-8586-20368AE7B2E4}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +432,7 @@
     <col min="4" max="16384" width="8.88671875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,38 +443,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>136566395</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20180</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44799</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
